--- a/files/FourInARow/lead_board.xlsx
+++ b/files/FourInARow/lead_board.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>68.35792422294617</v>
+        <v>69.88772988319397</v>
       </c>
     </row>
   </sheetData>
